--- a/Homework/HW2/calc.xlsx
+++ b/Homework/HW2/calc.xlsx
@@ -372,9 +372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -569,6 +567,7 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2">
         <f>((1 + E4)^E2) / ((1+D4)^D2) -1</f>
         <v>2.1385542168671279E-2</v>

--- a/Homework/HW2/calc.xlsx
+++ b/Homework/HW2/calc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Term</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>1-year fwd</t>
+  </si>
+  <si>
+    <t>swap rate</t>
+  </si>
+  <si>
+    <t>fixed leg(pv)</t>
+  </si>
+  <si>
+    <t>floating leg(pv)</t>
+  </si>
+  <si>
+    <t>notional principal</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -375,6 +390,9 @@
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -517,44 +535,44 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <f>1/(1+D4)^2</f>
-        <v>0.97392141344357652</v>
+        <f>1/(1+D4)^D2</f>
+        <v>0.98687456824237629</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:M5" si="0">1/(1+E4)^2</f>
+        <f t="shared" ref="E5:K5" si="0">1/(1+E4)^E2</f>
         <v>0.96621160913143622</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.95812176409660477</v>
+        <v>0.93784498011463568</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.95039382404481565</v>
+        <v>0.90324842078252787</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.94714377495762037</v>
+        <v>0.87305131957849502</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.93902392077653207</v>
+        <v>0.82799929496492486</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.93468697177479521</v>
+        <v>0.78946278523557867</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.93425230118221203</v>
+        <v>0.76182760431718322</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0.93398617798062233</v>
+        <f>1/(1+L4)^L2</f>
+        <v>0.73541421683183028</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>0.93238804904704908</v>
+        <f t="shared" ref="M5" si="1">1/(1+M4)^M2</f>
+        <v>0.70466628238200812</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -573,35 +591,35 @@
         <v>2.1385542168671279E-2</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:M6" si="1">((1 + F4)^F2) / ((1+E4)^E2) -1</f>
+        <f t="shared" ref="F6:M6" si="2">((1 + F4)^F2) / ((1+E4)^E2) -1</f>
         <v>3.0246607507920187E-2</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8302374558413455E-2</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4588002476889868E-2</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4410704076117034E-2</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8813586213372506E-2</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6274848485130073E-2</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5916340588494355E-2</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3634746288532256E-2</v>
       </c>
       <c r="O6">
@@ -612,6 +630,49 @@
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <f>(1 - D5) / (SUM($D$5:D5))</f>
+        <v>1.3300000000000103E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f>(1 - E5) / (SUM($D$5:E5))</f>
+        <v>1.7299999999998372E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f>(1 - F5) / (SUM($D$5:F5))</f>
+        <v>2.1499999999779546E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <f>(1 - G5) / (SUM($D$5:G5))</f>
+        <v>2.5499999992504897E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <f>(1 - H5) / (SUM($D$5:H5))</f>
+        <v>2.7199999999999863E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <f>(1 - I5) / (SUM($D$5:I5))</f>
+        <v>3.1299999999997191E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <f>(1 - J5) / (SUM($D$5:J5))</f>
+        <v>3.349999999995977E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <f>(1 - K5) / (SUM($D$5:K5))</f>
+        <v>3.3799999999830674E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <f>(1 - L5) / (SUM($D$5:L5))</f>
+        <v>3.3999999999409412E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <f>(1 - M5) / (SUM($D$5:M5))</f>
+        <v>3.4799999997522355E-2</v>
+      </c>
       <c r="O7">
         <v>5</v>
       </c>
@@ -628,6 +689,12 @@
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
       <c r="O9">
         <v>7</v>
       </c>
@@ -636,6 +703,12 @@
       </c>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
       <c r="O10">
         <v>8</v>
       </c>
@@ -644,6 +717,45 @@
       </c>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f>$D$9*$D$10*D5</f>
+        <v>4.2435606434422182</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:L11" si="3">$D$9*$D$10*E5</f>
+        <v>4.1547099192651755</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>4.0327334144929337</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>3.8839682093648698</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>3.7541206741875284</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>3.5603969683491767</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>3.3946899765129883</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>3.2758586985638876</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>3.16228113237687</v>
+      </c>
       <c r="O11">
         <v>9</v>
       </c>
@@ -652,6 +764,13 @@
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>$D$9*(1 - L5)</f>
+        <v>26.458578316816972</v>
+      </c>
       <c r="O12">
         <v>10</v>
       </c>
@@ -660,7 +779,13 @@
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D11:L11) - D12</f>
+        <v>7.0037413197386762</v>
+      </c>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C16">
@@ -711,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <f>100 *$P4</f>
+        <f t="shared" ref="D18:D26" si="4">100 *$P4</f>
         <v>1.73</v>
       </c>
       <c r="E18">
@@ -724,11 +849,11 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <f>100 *$P5</f>
+        <f t="shared" si="4"/>
         <v>2.15</v>
       </c>
       <c r="E19">
-        <f>100 *$P5</f>
+        <f t="shared" ref="E19:E26" si="5">100 *$P5</f>
         <v>2.15</v>
       </c>
       <c r="F19">
@@ -741,15 +866,15 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <f>100 *$P6</f>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="E20">
-        <f>100 *$P6</f>
+        <f t="shared" si="5"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="F20">
-        <f>100 *$P6</f>
+        <f t="shared" ref="F20:F26" si="6">100 *$P6</f>
         <v>2.5499999999999998</v>
       </c>
       <c r="G20">
@@ -762,19 +887,19 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <f>100 *$P7</f>
+        <f t="shared" si="4"/>
         <v>2.7199999999999998</v>
       </c>
       <c r="E21">
-        <f>100 *$P7</f>
+        <f t="shared" si="5"/>
         <v>2.7199999999999998</v>
       </c>
       <c r="F21">
-        <f>100 *$P7</f>
+        <f t="shared" si="6"/>
         <v>2.7199999999999998</v>
       </c>
       <c r="G21">
-        <f>100 *$P7</f>
+        <f t="shared" ref="G21:G26" si="7">100 *$P7</f>
         <v>2.7199999999999998</v>
       </c>
       <c r="H21">
@@ -787,19 +912,19 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <f>100 *$P8</f>
+        <f t="shared" si="4"/>
         <v>3.1300000000000003</v>
       </c>
       <c r="E22">
-        <f>100 *$P8</f>
+        <f t="shared" si="5"/>
         <v>3.1300000000000003</v>
       </c>
       <c r="F22">
-        <f>100 *$P8</f>
+        <f t="shared" si="6"/>
         <v>3.1300000000000003</v>
       </c>
       <c r="G22">
-        <f>100 *$P8</f>
+        <f t="shared" si="7"/>
         <v>3.1300000000000003</v>
       </c>
       <c r="H22">
@@ -816,19 +941,19 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <f>100 *$P9</f>
+        <f t="shared" si="4"/>
         <v>3.35</v>
       </c>
       <c r="E23">
-        <f>100 *$P9</f>
+        <f t="shared" si="5"/>
         <v>3.35</v>
       </c>
       <c r="F23">
-        <f>100 *$P9</f>
+        <f t="shared" si="6"/>
         <v>3.35</v>
       </c>
       <c r="G23">
-        <f>100 *$P9</f>
+        <f t="shared" si="7"/>
         <v>3.35</v>
       </c>
       <c r="H23">
@@ -849,19 +974,19 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <f>100 *$P10</f>
+        <f t="shared" si="4"/>
         <v>3.38</v>
       </c>
       <c r="E24">
-        <f>100 *$P10</f>
+        <f t="shared" si="5"/>
         <v>3.38</v>
       </c>
       <c r="F24">
-        <f>100 *$P10</f>
+        <f t="shared" si="6"/>
         <v>3.38</v>
       </c>
       <c r="G24">
-        <f>100 *$P10</f>
+        <f t="shared" si="7"/>
         <v>3.38</v>
       </c>
       <c r="H24">
@@ -886,19 +1011,19 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <f>100 *$P11</f>
+        <f t="shared" si="4"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="E25">
-        <f>100 *$P11</f>
+        <f t="shared" si="5"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="F25">
-        <f>100 *$P11</f>
+        <f t="shared" si="6"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="G25">
-        <f>100 *$P11</f>
+        <f t="shared" si="7"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="H25">
@@ -927,19 +1052,19 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <f>100 *$P12</f>
+        <f t="shared" si="4"/>
         <v>3.4799999999999995</v>
       </c>
       <c r="E26">
-        <f>100 *$P12</f>
+        <f t="shared" si="5"/>
         <v>3.4799999999999995</v>
       </c>
       <c r="F26">
-        <f>100 *$P12</f>
+        <f t="shared" si="6"/>
         <v>3.4799999999999995</v>
       </c>
       <c r="G26">
-        <f>100 *$P12</f>
+        <f t="shared" si="7"/>
         <v>3.4799999999999995</v>
       </c>
       <c r="H26">
@@ -985,39 +1110,39 @@
         <v>99.999999999999986</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:M29" si="2">E17 / (1 +E$4)^E$16</f>
+        <f t="shared" ref="E29:M29" si="8">E17 / (1 +E$4)^E$16</f>
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1026,47 +1151,47 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C38" si="3">SUM(D30:M30)</f>
+        <f t="shared" ref="C30:C38" si="9">SUM(D30:M30)</f>
         <v>100.00000000000031</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:M30" si="4">D18 / (1 +D$4)^D$16</f>
+        <f t="shared" ref="D30:M30" si="10">D18 / (1 +D$4)^D$16</f>
         <v>1.707293003059311</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>98.292706996941007</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1075,47 +1200,47 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>100.00000000006374</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:M31" si="5">D19 / (1 +D$4)^D$16</f>
+        <f t="shared" ref="D31:M31" si="11">D19 / (1 +D$4)^D$16</f>
         <v>2.1217803217211091</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.0773549596325878</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>95.800864718710045</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1124,47 +1249,47 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>100.00000000284378</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:M32" si="6">D20 / (1 +D$4)^D$16</f>
+        <f t="shared" ref="D32:M32" si="12">D20 / (1 +D$4)^D$16</f>
         <v>2.5165301490180596</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.4638396032851624</v>
       </c>
       <c r="F32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.3915046992923208</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>92.628125551248232</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1173,47 +1298,47 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>100.00000000000006</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:M33" si="7">D21 / (1 +D$4)^D$16</f>
+        <f t="shared" ref="D33:M33" si="13">D21 / (1 +D$4)^D$16</f>
         <v>2.6842988256192633</v>
       </c>
       <c r="E33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.6280955768375063</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.5509383459118089</v>
       </c>
       <c r="G33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4568357045284754</v>
       </c>
       <c r="H33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>89.679831547103007</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1222,47 +1347,47 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>100.00000000000153</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:M34" si="8">D22 / (1 +D$4)^D$16</f>
+        <f t="shared" ref="D34:M34" si="14">D22 / (1 +D$4)^D$16</f>
         <v>3.088917398598638</v>
       </c>
       <c r="E34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.0242423365813957</v>
       </c>
       <c r="F34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.9354547877588102</v>
       </c>
       <c r="G34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.8271675570493127</v>
       </c>
       <c r="H34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.7326506302806894</v>
       </c>
       <c r="I34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>85.391567289732691</v>
       </c>
       <c r="J34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1271,47 +1396,47 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>100.00000000002528</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:M35" si="9">D23 / (1 +D$4)^D$16</f>
+        <f t="shared" ref="D35:M35" si="15">D23 / (1 +D$4)^D$16</f>
         <v>3.3060298036119606</v>
       </c>
       <c r="E35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.2368088905903116</v>
       </c>
       <c r="F35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.1417806833840296</v>
       </c>
       <c r="G35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.0258822096214684</v>
       </c>
       <c r="H35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.9247219205879582</v>
       </c>
       <c r="I35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.7737976381324985</v>
       </c>
       <c r="J35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>81.59097885409706</v>
       </c>
       <c r="K35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -1320,47 +1445,47 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>100.00000000011931</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:M36" si="10">D24 / (1 +D$4)^D$16</f>
+        <f t="shared" ref="D36:M36" si="16">D24 / (1 +D$4)^D$16</f>
         <v>3.335636040659232</v>
       </c>
       <c r="E36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3.2657952388642544</v>
       </c>
       <c r="F36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3.1699160327874685</v>
       </c>
       <c r="G36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3.0529796622449443</v>
       </c>
       <c r="H36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.9509134601753129</v>
       </c>
       <c r="I36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.7986376169814458</v>
       </c>
       <c r="J36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.6683842140962559</v>
       </c>
       <c r="K36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>78.757737734310396</v>
       </c>
       <c r="L36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -1369,47 +1494,47 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>100.00000000045959</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:M37" si="11">D25 / (1 +D$4)^D$16</f>
+        <f t="shared" ref="D37:M37" si="17">D25 / (1 +D$4)^D$16</f>
         <v>3.3553735320240796</v>
       </c>
       <c r="E37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.2851194710468836</v>
       </c>
       <c r="F37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.1886729323897618</v>
       </c>
       <c r="G37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.071044630660595</v>
       </c>
       <c r="H37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.9683744865668831</v>
       </c>
       <c r="I37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.8151976028807448</v>
       </c>
       <c r="J37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.6841734698009678</v>
       </c>
       <c r="K37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.590213854678423</v>
       </c>
       <c r="L37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>76.041830020411254</v>
       </c>
       <c r="M37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1418,47 +1543,47 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>100.00000000210268</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:M38" si="12">D26 / (1 +D$4)^D$16</f>
+        <f t="shared" ref="D38:M38" si="18">D26 / (1 +D$4)^D$16</f>
         <v>3.4343234974834691</v>
       </c>
       <c r="E38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.3624163997773975</v>
       </c>
       <c r="F38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.263700530798932</v>
       </c>
       <c r="G38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.1433045043231966</v>
       </c>
       <c r="H38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.0382185921331621</v>
       </c>
       <c r="I38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2.881437546477938</v>
       </c>
       <c r="J38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2.7473304926198137</v>
       </c>
       <c r="K38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2.6511600630237973</v>
       </c>
       <c r="L38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2.5592414745747694</v>
       </c>
       <c r="M38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>72.918866900890208</v>
       </c>
     </row>

--- a/Homework/HW2/calc.xlsx
+++ b/Homework/HW2/calc.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN513/Homework/HW2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park-wanbae/Desktop/MFE/2018-1/FIN513/Homework/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" iterate="1" iterateCount="30000" iterateDelta="1E-8" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterate="1" iterateCount="30000" iterateDelta="1E-8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -71,16 +71,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="_(\$* #,##0_);_(\$* \(#,##0\);_(\$* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -104,19 +112,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,12 +401,13 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:18">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -441,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:18">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -489,7 +502,7 @@
         <v>0.98687456824237629</v>
       </c>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:18">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -530,7 +543,7 @@
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:18">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -581,7 +594,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:18">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -629,7 +642,7 @@
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:18">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -680,7 +693,7 @@
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:18">
       <c r="O8">
         <v>6</v>
       </c>
@@ -688,7 +701,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:18">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -702,7 +715,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:18">
       <c r="C10" t="s">
         <v>8</v>
       </c>
@@ -716,7 +729,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:18">
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -763,7 +776,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:18">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -778,7 +791,7 @@
         <v>3.4799999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:18">
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -786,8 +799,12 @@
         <f>SUM(D11:L11) - D12</f>
         <v>7.0037413197386762</v>
       </c>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E13" s="3">
+        <f>D13*1000000</f>
+        <v>7003741.3197386758</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18">
       <c r="C16">
         <v>0</v>
       </c>
@@ -822,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>1</v>
       </c>
@@ -831,7 +848,7 @@
         <v>101.33</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13">
       <c r="B18">
         <v>2</v>
       </c>
@@ -844,7 +861,7 @@
         <v>101.73</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13">
       <c r="B19">
         <v>3</v>
       </c>
@@ -861,7 +878,7 @@
         <v>102.15</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13">
       <c r="B20">
         <v>4</v>
       </c>
@@ -882,7 +899,7 @@
         <v>102.55</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13">
       <c r="B21">
         <v>5</v>
       </c>
@@ -907,7 +924,7 @@
         <v>102.72</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13">
       <c r="B22">
         <v>6</v>
       </c>
@@ -936,7 +953,7 @@
         <v>103.13</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13">
       <c r="B23">
         <v>7</v>
       </c>
@@ -969,7 +986,7 @@
         <v>103.35</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13">
       <c r="B24">
         <v>8</v>
       </c>
@@ -1006,7 +1023,7 @@
         <v>103.38</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13">
       <c r="B25">
         <v>9</v>
       </c>
@@ -1047,7 +1064,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13">
       <c r="B26">
         <v>10</v>
       </c>
@@ -1092,12 +1109,12 @@
         <v>103.48</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13">
       <c r="B29">
         <v>1</v>
       </c>
@@ -1146,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13">
       <c r="B30">
         <v>2</v>
       </c>
@@ -1195,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13">
       <c r="B31">
         <v>3</v>
       </c>
@@ -1244,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13">
       <c r="B32">
         <v>4</v>
       </c>
@@ -1293,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13">
       <c r="B33">
         <v>5</v>
       </c>
@@ -1342,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13">
       <c r="B34">
         <v>6</v>
       </c>
@@ -1391,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13">
       <c r="B35">
         <v>7</v>
       </c>
@@ -1440,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13">
       <c r="B36">
         <v>8</v>
       </c>
@@ -1489,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13">
       <c r="B37">
         <v>9</v>
       </c>
@@ -1538,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13">
       <c r="B38">
         <v>10</v>
       </c>
@@ -1589,6 +1606,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>